--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolina.paraiba\Box\UFBA\CCMP\Extensao\PE - Curso - Introducao a Estatistica usando o R Aplicacao em Analise Laboratoriais\Aula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto.sassi\Dropbox\IdeasPaper\sinar\extensao\PE - Curso - Introducao a Estatistica usando o R Aplicacao em Analise Laboratoriais\Aula\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="900" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="2" r:id="rId1"/>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Análise intralaboratorial</t>
+  </si>
+  <si>
+    <t>Repetitividade e entre operadores</t>
   </si>
   <si>
     <t>Padrão: 25</t>
@@ -280,9 +283,6 @@
   <si>
     <t>teor_amostra</t>
   </si>
-  <si>
-    <t>Repetitividade entre operadores</t>
-  </si>
 </sst>
 </file>
 
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,7 +372,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -659,7 +658,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,192 +700,192 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1164,10 +1163,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1811,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1820,10 +1819,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,10 +2637,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,25 +2772,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2799,10 +2800,10 @@
         <v>7.29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="13">
-        <v>6.11</v>
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>7.64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2810,10 +2811,10 @@
         <v>4.84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="13">
-        <v>5.93</v>
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>6.7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2821,10 +2822,10 @@
         <v>5.89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="13">
-        <v>6.08</v>
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>6.14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2832,10 +2833,10 @@
         <v>7.19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="13">
-        <v>5.72</v>
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>8.16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2843,10 +2844,10 @@
         <v>4.63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="13">
-        <v>5.53</v>
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>8.82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2854,9 +2855,9 @@
         <v>8.82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="13">
+        <v>69</v>
+      </c>
+      <c r="C7" s="12">
         <v>6.14</v>
       </c>
     </row>
@@ -2865,9 +2866,9 @@
         <v>7.15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="13">
+        <v>69</v>
+      </c>
+      <c r="C8" s="12">
         <v>7.36</v>
       </c>
     </row>
@@ -2876,9 +2877,9 @@
         <v>6.11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="13">
+        <v>69</v>
+      </c>
+      <c r="C9" s="12">
         <v>3.37</v>
       </c>
     </row>
@@ -2887,9 +2888,9 @@
         <v>7.77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="13">
+        <v>69</v>
+      </c>
+      <c r="C10" s="12">
         <v>6.7</v>
       </c>
     </row>
@@ -2898,9 +2899,9 @@
         <v>5.54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="13">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12">
         <v>7.1</v>
       </c>
     </row>
@@ -2909,9 +2910,9 @@
         <v>7.1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="13">
+        <v>70</v>
+      </c>
+      <c r="C12" s="12">
         <v>8.82</v>
       </c>
     </row>
@@ -2920,9 +2921,9 @@
         <v>7.93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="13">
+        <v>70</v>
+      </c>
+      <c r="C13" s="12">
         <v>6.31</v>
       </c>
     </row>
@@ -2931,9 +2932,9 @@
         <v>5.93</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="13">
+        <v>70</v>
+      </c>
+      <c r="C14" s="12">
         <v>7.36</v>
       </c>
     </row>
@@ -2942,9 +2943,9 @@
         <v>3.37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="13">
+        <v>70</v>
+      </c>
+      <c r="C15" s="12">
         <v>5.77</v>
       </c>
     </row>
@@ -2953,9 +2954,9 @@
         <v>5.24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="13">
+        <v>70</v>
+      </c>
+      <c r="C16" s="12">
         <v>5.72</v>
       </c>
     </row>
@@ -2964,10 +2965,10 @@
         <v>5.53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="12">
-        <v>7.36</v>
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>6.44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2975,10 +2976,10 @@
         <v>7.36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="12">
-        <v>7.1</v>
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>5.72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2986,10 +2987,10 @@
         <v>6.08</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="12">
-        <v>7.19</v>
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>5.77</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2997,10 +2998,10 @@
         <v>6.44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="12">
-        <v>7.15</v>
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>5.24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,10 +3009,10 @@
         <v>6.7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="12">
-        <v>7.64</v>
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>3.37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3019,9 +3020,9 @@
         <v>5.77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="13">
+        <v>72</v>
+      </c>
+      <c r="C22" s="12">
         <v>3.37</v>
       </c>
     </row>
@@ -3030,9 +3031,9 @@
         <v>6.27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="13">
+        <v>72</v>
+      </c>
+      <c r="C23" s="12">
         <v>4.84</v>
       </c>
     </row>
@@ -3041,9 +3042,9 @@
         <v>5.7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="13">
+        <v>72</v>
+      </c>
+      <c r="C24" s="12">
         <v>7.15</v>
       </c>
     </row>
@@ -3052,9 +3053,9 @@
         <v>6.57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="13">
+        <v>72</v>
+      </c>
+      <c r="C25" s="12">
         <v>5.93</v>
       </c>
     </row>
@@ -3063,9 +3064,9 @@
         <v>8.16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="13">
+        <v>72</v>
+      </c>
+      <c r="C26" s="12">
         <v>6.11</v>
       </c>
     </row>
@@ -3074,9 +3075,9 @@
         <v>6.31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="13">
+        <v>73</v>
+      </c>
+      <c r="C27" s="12">
         <v>4.63</v>
       </c>
     </row>
@@ -3085,9 +3086,9 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="13">
+        <v>73</v>
+      </c>
+      <c r="C28" s="12">
         <v>7.93</v>
       </c>
     </row>
@@ -3096,9 +3097,9 @@
         <v>5.72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="13">
+        <v>73</v>
+      </c>
+      <c r="C29" s="12">
         <v>7.19</v>
       </c>
     </row>
@@ -3107,9 +3108,9 @@
         <v>7.64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="13">
+        <v>73</v>
+      </c>
+      <c r="C30" s="12">
         <v>6.27</v>
       </c>
     </row>
@@ -3118,9 +3119,9 @@
         <v>6.14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="13">
+        <v>73</v>
+      </c>
+      <c r="C31" s="12">
         <v>5.77</v>
       </c>
     </row>
@@ -3133,7 +3134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3147,19 +3148,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3176,7 +3177,7 @@
         <v>0.2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3193,7 +3194,7 @@
         <v>0.2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3210,7 +3211,7 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3227,7 +3228,7 @@
         <v>0.2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3244,7 +3245,7 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3261,7 +3262,7 @@
         <v>0.4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3278,7 +3279,7 @@
         <v>0.3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3295,7 +3296,7 @@
         <v>0.2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3312,7 +3313,7 @@
         <v>0.2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3329,7 +3330,7 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3346,7 +3347,7 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3363,7 +3364,7 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3380,7 +3381,7 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,7 +3398,7 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3414,7 +3415,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3431,7 +3432,7 @@
         <v>0.4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3448,7 +3449,7 @@
         <v>0.4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3465,7 +3466,7 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3482,7 +3483,7 @@
         <v>0.3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3499,7 +3500,7 @@
         <v>0.3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3516,7 +3517,7 @@
         <v>0.2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3533,7 +3534,7 @@
         <v>0.4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,7 +3551,7 @@
         <v>0.2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3567,7 +3568,7 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3584,7 +3585,7 @@
         <v>0.2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3601,7 +3602,7 @@
         <v>0.2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3618,7 +3619,7 @@
         <v>0.4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3635,7 +3636,7 @@
         <v>0.2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3652,7 +3653,7 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3669,7 +3670,7 @@
         <v>0.2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3686,7 +3687,7 @@
         <v>0.2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3703,7 +3704,7 @@
         <v>0.4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,7 +3721,7 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3737,7 +3738,7 @@
         <v>0.2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3754,7 +3755,7 @@
         <v>0.2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3771,7 +3772,7 @@
         <v>0.2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3788,7 +3789,7 @@
         <v>0.2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3805,7 +3806,7 @@
         <v>0.1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3822,7 +3823,7 @@
         <v>0.2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3839,7 +3840,7 @@
         <v>0.2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3856,7 +3857,7 @@
         <v>0.3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3873,7 +3874,7 @@
         <v>0.3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3890,7 +3891,7 @@
         <v>0.2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3907,7 +3908,7 @@
         <v>0.6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3924,7 +3925,7 @@
         <v>0.4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3941,7 +3942,7 @@
         <v>0.3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3958,7 +3959,7 @@
         <v>0.2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3975,7 +3976,7 @@
         <v>0.2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3992,7 +3993,7 @@
         <v>0.2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4009,7 +4010,7 @@
         <v>0.2</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4026,7 +4027,7 @@
         <v>1.4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4043,7 +4044,7 @@
         <v>1.5</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4060,7 +4061,7 @@
         <v>1.5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,7 +4078,7 @@
         <v>1.3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4094,7 +4095,7 @@
         <v>1.5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4111,7 +4112,7 @@
         <v>1.3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4128,7 +4129,7 @@
         <v>1.6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4145,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4162,7 +4163,7 @@
         <v>1.3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4179,7 +4180,7 @@
         <v>1.4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4196,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4213,7 +4214,7 @@
         <v>1.5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4230,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4247,7 +4248,7 @@
         <v>1.4</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4264,7 +4265,7 @@
         <v>1.3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4281,7 +4282,7 @@
         <v>1.4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4298,7 +4299,7 @@
         <v>1.5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4315,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4332,7 +4333,7 @@
         <v>1.5</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4349,7 +4350,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4366,7 +4367,7 @@
         <v>1.8</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4383,7 +4384,7 @@
         <v>1.3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4400,7 +4401,7 @@
         <v>1.5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4417,7 +4418,7 @@
         <v>1.2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4434,7 +4435,7 @@
         <v>1.3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4451,7 +4452,7 @@
         <v>1.4</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4468,7 +4469,7 @@
         <v>1.4</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4485,7 +4486,7 @@
         <v>1.7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4502,7 +4503,7 @@
         <v>1.5</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4519,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4536,7 +4537,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4553,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4570,7 +4571,7 @@
         <v>1.2</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,7 +4588,7 @@
         <v>1.6</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4604,7 +4605,7 @@
         <v>1.5</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4621,7 +4622,7 @@
         <v>1.6</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4638,7 +4639,7 @@
         <v>1.5</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4655,7 +4656,7 @@
         <v>1.3</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4672,7 +4673,7 @@
         <v>1.3</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4689,7 +4690,7 @@
         <v>1.3</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4706,7 +4707,7 @@
         <v>1.2</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4723,7 +4724,7 @@
         <v>1.4</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4740,7 +4741,7 @@
         <v>1.2</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4757,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4774,7 +4775,7 @@
         <v>1.3</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4791,7 +4792,7 @@
         <v>1.2</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4808,7 +4809,7 @@
         <v>1.3</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4825,7 +4826,7 @@
         <v>1.3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4842,7 +4843,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4859,7 +4860,7 @@
         <v>1.3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4876,7 +4877,7 @@
         <v>2.5</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4893,7 +4894,7 @@
         <v>1.9</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4910,7 +4911,7 @@
         <v>2.1</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4927,7 +4928,7 @@
         <v>1.8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4944,7 +4945,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4961,7 +4962,7 @@
         <v>2.1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4978,7 +4979,7 @@
         <v>1.7</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4995,7 +4996,7 @@
         <v>1.8</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5012,7 +5013,7 @@
         <v>1.8</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5029,7 +5030,7 @@
         <v>2.5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5046,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5063,7 +5064,7 @@
         <v>1.9</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5080,7 +5081,7 @@
         <v>2.1</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5097,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5114,7 +5115,7 @@
         <v>2.4</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5131,7 +5132,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5148,7 +5149,7 @@
         <v>1.8</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5165,7 +5166,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5182,7 +5183,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5199,7 +5200,7 @@
         <v>1.5</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5216,7 +5217,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5233,7 +5234,7 @@
         <v>2</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5250,7 +5251,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5267,7 +5268,7 @@
         <v>1.8</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5284,7 +5285,7 @@
         <v>2.1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5301,7 +5302,7 @@
         <v>1.8</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5318,7 +5319,7 @@
         <v>1.8</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5335,7 +5336,7 @@
         <v>1.8</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -5352,7 +5353,7 @@
         <v>2.1</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -5369,7 +5370,7 @@
         <v>1.6</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -5386,7 +5387,7 @@
         <v>1.9</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -5403,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5420,7 +5421,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5437,7 +5438,7 @@
         <v>1.5</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5454,7 +5455,7 @@
         <v>1.4</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -5471,7 +5472,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5488,7 +5489,7 @@
         <v>2.4</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -5505,7 +5506,7 @@
         <v>1.8</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -5522,7 +5523,7 @@
         <v>1.8</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5539,7 +5540,7 @@
         <v>2.1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5556,7 +5557,7 @@
         <v>2.4</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5573,7 +5574,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -5590,7 +5591,7 @@
         <v>1.9</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -5607,7 +5608,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5624,7 +5625,7 @@
         <v>2.5</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -5641,7 +5642,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -5658,7 +5659,7 @@
         <v>1.9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5675,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5692,7 +5693,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -5709,7 +5710,7 @@
         <v>1.8</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5794,7 +5795,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5804,10 +5805,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6163,10 +6164,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6514,7 +6515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6527,19 +6528,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6547,7 +6548,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -6564,7 +6565,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -6581,7 +6582,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -6598,7 +6599,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -6615,7 +6616,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -6632,7 +6633,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -6649,7 +6650,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -6666,7 +6667,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -6683,7 +6684,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -6700,7 +6701,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -6717,7 +6718,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -6734,7 +6735,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -6751,7 +6752,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -6768,7 +6769,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -6785,7 +6786,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>16</v>
@@ -6802,7 +6803,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>17</v>
@@ -6819,13 +6820,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -6836,7 +6837,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -6853,7 +6854,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -6870,7 +6871,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -6887,7 +6888,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -6904,7 +6905,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -6921,7 +6922,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
         <v>6</v>
@@ -6938,13 +6939,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -6955,7 +6956,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -6972,7 +6973,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -6989,7 +6990,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -7006,7 +7007,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -7023,7 +7024,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -7040,7 +7041,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -7057,7 +7058,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1">
         <v>7</v>
@@ -7074,7 +7075,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1">
         <v>9</v>
@@ -7091,7 +7092,7 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -7108,7 +7109,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1">
         <v>11</v>
@@ -7125,7 +7126,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1">
         <v>12</v>
@@ -7142,7 +7143,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1">
         <v>13</v>
@@ -7159,7 +7160,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1">
         <v>14</v>
@@ -7176,7 +7177,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1">
         <v>16</v>
@@ -7193,7 +7194,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1">
         <v>17</v>
@@ -7210,13 +7211,13 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1">
         <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -7227,7 +7228,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -7244,7 +7245,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -7261,7 +7262,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -7278,7 +7279,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" s="1">
         <v>4</v>
@@ -7295,7 +7296,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1">
         <v>5</v>
@@ -7312,7 +7313,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1">
         <v>6</v>
@@ -7329,7 +7330,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" s="1">
         <v>7</v>
@@ -7346,7 +7347,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1">
         <v>9</v>
@@ -7363,7 +7364,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C50" s="1">
         <v>10</v>
@@ -7380,7 +7381,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" s="1">
         <v>11</v>
@@ -7397,7 +7398,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1">
         <v>12</v>
@@ -7414,7 +7415,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" s="1">
         <v>13</v>
@@ -7431,7 +7432,7 @@
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
         <v>16</v>
@@ -7448,7 +7449,7 @@
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1">
         <v>17</v>
@@ -7465,13 +7466,13 @@
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1">
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E56" s="1">
         <v>10</v>
@@ -7482,7 +7483,7 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -7499,7 +7500,7 @@
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -7516,7 +7517,7 @@
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
@@ -7533,7 +7534,7 @@
         <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
@@ -7550,7 +7551,7 @@
         <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C61" s="1">
         <v>4</v>
@@ -7567,7 +7568,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C62" s="1">
         <v>5</v>
@@ -7584,13 +7585,13 @@
         <v>16</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63" s="1">
         <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -7601,7 +7602,7 @@
         <v>22</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -7618,7 +7619,7 @@
         <v>22</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
@@ -7635,7 +7636,7 @@
         <v>22</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C66" s="1">
         <v>3</v>
@@ -7652,7 +7653,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67" s="1">
         <v>4</v>
@@ -7669,7 +7670,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C68" s="1">
         <v>5</v>
@@ -7686,7 +7687,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C69" s="1">
         <v>6</v>
@@ -7703,7 +7704,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C70" s="1">
         <v>7</v>
@@ -7720,7 +7721,7 @@
         <v>22</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C71" s="1">
         <v>9</v>
@@ -7737,7 +7738,7 @@
         <v>22</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C72" s="1">
         <v>10</v>
@@ -7754,7 +7755,7 @@
         <v>22</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C73" s="1">
         <v>11</v>
@@ -7771,7 +7772,7 @@
         <v>22</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1">
         <v>12</v>
@@ -7788,7 +7789,7 @@
         <v>22</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" s="1">
         <v>13</v>
@@ -7805,7 +7806,7 @@
         <v>22</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C76" s="1">
         <v>14</v>
@@ -7822,7 +7823,7 @@
         <v>22</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C77" s="1">
         <v>16</v>
@@ -7839,7 +7840,7 @@
         <v>22</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C78" s="1">
         <v>17</v>
@@ -7856,13 +7857,13 @@
         <v>22</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C79" s="1">
         <v>18</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -7873,7 +7874,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -7890,7 +7891,7 @@
         <v>22</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C81" s="1">
         <v>2</v>
@@ -7907,7 +7908,7 @@
         <v>22</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C82" s="1">
         <v>3</v>
@@ -7924,7 +7925,7 @@
         <v>22</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1">
         <v>4</v>
@@ -7941,7 +7942,7 @@
         <v>22</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C84" s="1">
         <v>5</v>
@@ -7958,7 +7959,7 @@
         <v>22</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1">
         <v>6</v>
@@ -7975,7 +7976,7 @@
         <v>22</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1">
         <v>7</v>
@@ -7992,7 +7993,7 @@
         <v>22</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C87" s="1">
         <v>9</v>
@@ -8009,7 +8010,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C88" s="1">
         <v>10</v>
@@ -8026,7 +8027,7 @@
         <v>22</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C89" s="1">
         <v>11</v>
@@ -8043,7 +8044,7 @@
         <v>22</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1">
         <v>12</v>
@@ -8060,7 +8061,7 @@
         <v>22</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C91" s="1">
         <v>13</v>
@@ -8077,7 +8078,7 @@
         <v>22</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C92" s="1">
         <v>15</v>
@@ -8094,7 +8095,7 @@
         <v>22</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C93" s="1">
         <v>16</v>
@@ -8111,7 +8112,7 @@
         <v>22</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1">
         <v>17</v>
@@ -8128,13 +8129,13 @@
         <v>22</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C95" s="1">
         <v>18</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E95" s="1">
         <v>9</v>
@@ -8145,7 +8146,7 @@
         <v>28</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -8162,7 +8163,7 @@
         <v>28</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -8179,7 +8180,7 @@
         <v>28</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
@@ -8196,7 +8197,7 @@
         <v>28</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C99" s="1">
         <v>3</v>
@@ -8213,7 +8214,7 @@
         <v>28</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C100" s="1">
         <v>4</v>
@@ -8230,7 +8231,7 @@
         <v>28</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C101" s="1">
         <v>5</v>
@@ -8247,7 +8248,7 @@
         <v>28</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C102" s="1">
         <v>6</v>
@@ -8264,7 +8265,7 @@
         <v>28</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C103" s="1">
         <v>7</v>
@@ -8281,7 +8282,7 @@
         <v>28</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C104" s="1">
         <v>9</v>
@@ -8298,7 +8299,7 @@
         <v>28</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C105" s="1">
         <v>10</v>
@@ -8315,7 +8316,7 @@
         <v>28</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C106" s="1">
         <v>11</v>
@@ -8332,7 +8333,7 @@
         <v>28</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C107" s="1">
         <v>12</v>
@@ -8349,7 +8350,7 @@
         <v>28</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C108" s="1">
         <v>13</v>
@@ -8366,7 +8367,7 @@
         <v>28</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C109" s="1">
         <v>14</v>
@@ -8383,7 +8384,7 @@
         <v>28</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C110" s="1">
         <v>16</v>
@@ -8400,7 +8401,7 @@
         <v>28</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C111" s="1">
         <v>17</v>
@@ -8417,13 +8418,13 @@
         <v>28</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C112" s="1">
         <v>18</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -8434,7 +8435,7 @@
         <v>28</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C113" s="1">
         <v>0</v>
@@ -8451,7 +8452,7 @@
         <v>28</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C114" s="1">
         <v>2</v>
@@ -8468,7 +8469,7 @@
         <v>28</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C115" s="1">
         <v>3</v>
@@ -8485,7 +8486,7 @@
         <v>28</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C116" s="1">
         <v>5</v>
@@ -8502,7 +8503,7 @@
         <v>28</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C117" s="1">
         <v>6</v>
@@ -8519,7 +8520,7 @@
         <v>28</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C118" s="1">
         <v>7</v>
@@ -8536,7 +8537,7 @@
         <v>28</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C119" s="1">
         <v>9</v>
@@ -8553,7 +8554,7 @@
         <v>28</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C120" s="1">
         <v>10</v>
@@ -8570,7 +8571,7 @@
         <v>28</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C121" s="1">
         <v>11</v>
@@ -8587,7 +8588,7 @@
         <v>28</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C122" s="1">
         <v>12</v>
@@ -8604,7 +8605,7 @@
         <v>28</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C123" s="1">
         <v>13</v>
@@ -8621,7 +8622,7 @@
         <v>28</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C124" s="1">
         <v>14</v>
@@ -8638,7 +8639,7 @@
         <v>28</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C125" s="1">
         <v>16</v>
@@ -8655,7 +8656,7 @@
         <v>28</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C126" s="1">
         <v>17</v>
@@ -8672,13 +8673,13 @@
         <v>28</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C127" s="1">
         <v>18</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E127" s="1">
         <v>2</v>
@@ -8689,7 +8690,7 @@
         <v>34</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C128" s="1">
         <v>0</v>
@@ -8706,7 +8707,7 @@
         <v>34</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C129" s="1">
         <v>2</v>
@@ -8723,7 +8724,7 @@
         <v>34</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C130" s="1">
         <v>3</v>
@@ -8740,7 +8741,7 @@
         <v>34</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C131" s="1">
         <v>4</v>
@@ -8757,7 +8758,7 @@
         <v>34</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C132" s="1">
         <v>5</v>
@@ -8774,7 +8775,7 @@
         <v>34</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C133" s="1">
         <v>6</v>
@@ -8791,7 +8792,7 @@
         <v>34</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C134" s="1">
         <v>7</v>
@@ -8808,7 +8809,7 @@
         <v>34</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C135" s="1">
         <v>9</v>
@@ -8825,7 +8826,7 @@
         <v>34</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C136" s="1">
         <v>10</v>
@@ -8842,7 +8843,7 @@
         <v>34</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C137" s="1">
         <v>11</v>
@@ -8859,7 +8860,7 @@
         <v>34</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C138" s="1">
         <v>12</v>
@@ -8876,7 +8877,7 @@
         <v>34</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C139" s="1">
         <v>13</v>
@@ -8893,7 +8894,7 @@
         <v>34</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C140" s="1">
         <v>14</v>
@@ -8910,7 +8911,7 @@
         <v>34</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C141" s="1">
         <v>16</v>
@@ -8927,7 +8928,7 @@
         <v>34</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C142" s="1">
         <v>17</v>
@@ -8944,13 +8945,13 @@
         <v>34</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C143" s="1">
         <v>18</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
@@ -8961,7 +8962,7 @@
         <v>34</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C144" s="1">
         <v>0</v>
@@ -8978,7 +8979,7 @@
         <v>34</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C145" s="1">
         <v>2</v>
@@ -8995,7 +8996,7 @@
         <v>34</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C146" s="1">
         <v>3</v>
@@ -9012,7 +9013,7 @@
         <v>34</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C147" s="1">
         <v>4</v>
@@ -9029,7 +9030,7 @@
         <v>34</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C148" s="1">
         <v>5</v>
@@ -9046,7 +9047,7 @@
         <v>34</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C149" s="1">
         <v>6</v>
@@ -9063,7 +9064,7 @@
         <v>34</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C150" s="1">
         <v>8</v>
@@ -9080,7 +9081,7 @@
         <v>34</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C151" s="1">
         <v>9</v>
@@ -9097,7 +9098,7 @@
         <v>34</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C152" s="1">
         <v>10</v>
@@ -9114,7 +9115,7 @@
         <v>34</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C153" s="1">
         <v>11</v>
@@ -9131,7 +9132,7 @@
         <v>34</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C154" s="1">
         <v>12</v>
@@ -9148,7 +9149,7 @@
         <v>34</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C155" s="1">
         <v>13</v>
@@ -9165,7 +9166,7 @@
         <v>34</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C156" s="1">
         <v>14</v>
@@ -9182,7 +9183,7 @@
         <v>34</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C157" s="1">
         <v>16</v>
@@ -9199,7 +9200,7 @@
         <v>34</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C158" s="1">
         <v>17</v>
@@ -9216,13 +9217,13 @@
         <v>34</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C159" s="1">
         <v>18</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E159" s="1">
         <v>3</v>
@@ -9233,7 +9234,7 @@
         <v>40</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C160" s="1">
         <v>0</v>
@@ -9250,7 +9251,7 @@
         <v>40</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C161" s="1">
         <v>1</v>
@@ -9267,7 +9268,7 @@
         <v>40</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C162" s="1">
         <v>2</v>
@@ -9284,7 +9285,7 @@
         <v>40</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C163" s="1">
         <v>3</v>
@@ -9301,7 +9302,7 @@
         <v>40</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C164" s="1">
         <v>4</v>
@@ -9318,7 +9319,7 @@
         <v>40</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C165" s="1">
         <v>5</v>
@@ -9335,7 +9336,7 @@
         <v>40</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C166" s="1">
         <v>6</v>
@@ -9352,7 +9353,7 @@
         <v>40</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C167" s="1">
         <v>7</v>
@@ -9369,7 +9370,7 @@
         <v>40</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C168" s="1">
         <v>9</v>
@@ -9386,7 +9387,7 @@
         <v>40</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C169" s="1">
         <v>10</v>
@@ -9403,7 +9404,7 @@
         <v>40</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C170" s="1">
         <v>11</v>
@@ -9420,7 +9421,7 @@
         <v>40</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C171" s="1">
         <v>12</v>
@@ -9437,7 +9438,7 @@
         <v>40</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C172" s="1">
         <v>13</v>
@@ -9454,7 +9455,7 @@
         <v>40</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C173" s="1">
         <v>14</v>
@@ -9471,7 +9472,7 @@
         <v>40</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C174" s="1">
         <v>16</v>
@@ -9488,7 +9489,7 @@
         <v>40</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C175" s="1">
         <v>17</v>
@@ -9505,13 +9506,13 @@
         <v>40</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C176" s="1">
         <v>18</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E176" s="1">
         <v>17</v>
@@ -9522,7 +9523,7 @@
         <v>40</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C177" s="1">
         <v>0</v>
@@ -9539,7 +9540,7 @@
         <v>40</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C178" s="1">
         <v>1</v>
@@ -9556,7 +9557,7 @@
         <v>40</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C179" s="1">
         <v>2</v>
@@ -9573,7 +9574,7 @@
         <v>40</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C180" s="1">
         <v>3</v>
@@ -9590,7 +9591,7 @@
         <v>40</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C181" s="1">
         <v>4</v>
@@ -9607,7 +9608,7 @@
         <v>40</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C182" s="1">
         <v>5</v>
@@ -9624,7 +9625,7 @@
         <v>40</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C183" s="1">
         <v>6</v>
@@ -9641,7 +9642,7 @@
         <v>40</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C184" s="1">
         <v>7</v>
@@ -9658,7 +9659,7 @@
         <v>40</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C185" s="1">
         <v>9</v>
@@ -9675,7 +9676,7 @@
         <v>40</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C186" s="1">
         <v>10</v>
@@ -9692,7 +9693,7 @@
         <v>40</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C187" s="1">
         <v>11</v>
@@ -9709,7 +9710,7 @@
         <v>40</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C188" s="1">
         <v>12</v>
@@ -9726,7 +9727,7 @@
         <v>40</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C189" s="1">
         <v>13</v>
@@ -9743,7 +9744,7 @@
         <v>40</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C190" s="1">
         <v>14</v>
@@ -9760,7 +9761,7 @@
         <v>40</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C191" s="1">
         <v>16</v>
@@ -9777,7 +9778,7 @@
         <v>40</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C192" s="1">
         <v>17</v>
@@ -9794,13 +9795,13 @@
         <v>40</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C193" s="1">
         <v>18</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E193" s="1">
         <v>12</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilberto.sassi\Dropbox\IdeasPaper\sinar\extensao\PE - Curso - Introducao a Estatistica usando o R Aplicacao em Analise Laboratoriais\Aula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolina.paraiba\Box\UFBA\CCMP\Extensao\PE - Curso - Introducao a Estatistica usando o R Aplicacao em Analise Laboratoriais\Aula\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="900" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="900" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Trigo" sheetId="14" r:id="rId13"/>
     <sheet name="Analistas" sheetId="15" r:id="rId14"/>
     <sheet name="teor_alcoolico" sheetId="17" r:id="rId15"/>
+    <sheet name="Tempo_Volume_Distancia" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="84">
   <si>
     <t>y</t>
   </si>
@@ -283,6 +284,15 @@
   <si>
     <t>teor_amostra</t>
   </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Distancia</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,6 +384,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2772,7 +2785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17:C21"/>
     </sheetView>
   </sheetViews>
@@ -3127,6 +3140,305 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>560</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>220</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>340</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>330</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>210</v>
+      </c>
+      <c r="C9" s="1">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1460</v>
+      </c>
+      <c r="C10" s="1">
+        <v>79.239999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>605</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>688</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>215</v>
+      </c>
+      <c r="C13" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>255</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>462</v>
+      </c>
+      <c r="C15" s="1">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>448</v>
+      </c>
+      <c r="C16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>776</v>
+      </c>
+      <c r="C17" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>200</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>132</v>
+      </c>
+      <c r="C19" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>770</v>
+      </c>
+      <c r="C21" s="1">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>140</v>
+      </c>
+      <c r="C22" s="1">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1">
+        <v>810</v>
+      </c>
+      <c r="C23" s="1">
+        <v>52.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>450</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>635</v>
+      </c>
+      <c r="C25" s="1">
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>150</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="900" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="900" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="Analistas" sheetId="15" r:id="rId14"/>
     <sheet name="teor_alcoolico" sheetId="17" r:id="rId15"/>
     <sheet name="Tempo_Volume_Distancia" sheetId="18" r:id="rId16"/>
+    <sheet name="Enxaqueca" sheetId="19" r:id="rId17"/>
+    <sheet name="Voltimetro" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="104">
   <si>
     <t>y</t>
   </si>
@@ -293,6 +295,66 @@
   <si>
     <t>Tempo</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>droga</t>
+  </si>
+  <si>
+    <t>dor</t>
+  </si>
+  <si>
+    <t>Tempo_Volume_Distancia</t>
+  </si>
+  <si>
+    <t>Tempo: tempo de entrega</t>
+  </si>
+  <si>
+    <t>Volume: volume entregue</t>
+  </si>
+  <si>
+    <t>Distancia: distância percorrida</t>
+  </si>
+  <si>
+    <t>Enxaqueca</t>
+  </si>
+  <si>
+    <t>Intensidade de dor para três drogas para enxaqueca</t>
+  </si>
+  <si>
+    <t>droga: três tipos de drogas</t>
+  </si>
+  <si>
+    <t>dor: intensidade da dor</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>voltimetro</t>
+  </si>
+  <si>
+    <t>forca</t>
+  </si>
+  <si>
+    <t>Voltimetro</t>
+  </si>
+  <si>
+    <t>Teste para verificar se voltímetros de diferentes marcas estão igualmente calibrados</t>
+  </si>
+  <si>
+    <t>voltimetro: marca do voltímetro</t>
+  </si>
+  <si>
+    <t>forca: medição da força constante</t>
+  </si>
 </sst>
 </file>
 
@@ -365,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,6 +449,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,15 +749,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="107" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -899,6 +980,63 @@
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +1961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2639,9 +2777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2785,9 +2921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3147,7 +3281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3435,6 +3571,427 @@
       </c>
       <c r="C26" s="1">
         <v>10.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="14">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6106,9 +6663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6185,9 +6740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
